--- a/biology/Médecine/Galila_Tamarhan/Galila_Tamarhan.xlsx
+++ b/biology/Médecine/Galila_Tamarhan/Galila_Tamarhan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Galila Tamarhan (ou Tamruhan) al-Habashiya (en arabe : جليلة تمرهان / ALA-LC: Jalīlah Tamarhān; décédée en 1863) était une femme médecin dans la Province ottomane d'Égypte au XIXe siècle.
 </t>
@@ -511,9 +523,11 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle a été l'une des premières femmes à signer ses articles dans l'histoire de la presse du Moyen-Orient, en rédigeant des articles pour un magazine médical appelé Ya'asub al-Tib (Leader en médecine)[1],[2]. Après avoir terminé ses études en 1847, à l'école de soins infirmiers d'Abouzabel, elle a été nommée dans cet établissement en tant que maîtresse adjointe, et a été promue en 1857 au poste d'instructeur en chef, qu'elle a occupé jusqu'à sa mort[3],[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle a été l'une des premières femmes à signer ses articles dans l'histoire de la presse du Moyen-Orient, en rédigeant des articles pour un magazine médical appelé Ya'asub al-Tib (Leader en médecine),. Après avoir terminé ses études en 1847, à l'école de soins infirmiers d'Abouzabel, elle a été nommée dans cet établissement en tant que maîtresse adjointe, et a été promue en 1857 au poste d'instructeur en chef, qu'elle a occupé jusqu'à sa mort,.
 </t>
         </is>
       </c>
